--- a/03. Advanced Lookups.xlsx
+++ b/03. Advanced Lookups.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="62">
   <si>
     <t>Gross Sales</t>
   </si>
@@ -212,6 +212,12 @@
   <si>
     <t>CoGS as % of Sales</t>
   </si>
+  <si>
+    <t>This file demonstrates using the INDRECT() function in conjunction with the OFFSET() and MATCH() functions to summarize fictional financial data stored across multiple tabs.</t>
+  </si>
+  <si>
+    <t>This allows for simplified analysis of data which can otherwise be problematic to gather and summarize.</t>
+  </si>
 </sst>
 </file>
 
@@ -220,9 +226,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -366,27 +372,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -399,7 +405,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -684,11 +690,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -821,6 +825,16 @@
       <c r="H4" s="26">
         <f t="shared" ca="1" si="0"/>
         <v>0.18856726172792829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1139,15 +1153,15 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>251.46</v>
+        <v>228.60000000000002</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>257.37</v>
+        <v>223.8</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>263.40000000000003</v>
+        <v>289.74</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -1155,11 +1169,11 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>322.56</v>
+        <v>291.84000000000003</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>286.92</v>
+        <v>350.68</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -1167,11 +1181,11 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>216.72</v>
+        <v>276.92</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>197.03</v>
+        <v>228.14000000000001</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -1179,11 +1193,11 @@
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>217.44</v>
+        <v>253.67999999999998</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>287.2</v>
+        <v>301.56</v>
       </c>
       <c r="O11" s="15">
         <v>3175</v>
@@ -3410,7 +3424,7 @@
         <v>41640</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:N4" si="0">EOMONTH(C3,0)+1</f>
+        <f t="shared" ref="D3:N3" si="0">EOMONTH(C3,0)+1</f>
         <v>41671</v>
       </c>
       <c r="E3" s="3">
@@ -3656,51 +3670,51 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>256.68</v>
+        <v>327.98</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>286.02</v>
+        <v>272.40000000000003</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>308.2</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>225.72</v>
+        <v>184.68</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>199.88</v>
+        <v>189.35999999999999</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>248.22</v>
+        <v>271.86</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>251.24</v>
+        <v>228.4</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>218.4</v>
+        <v>229.32</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>295.8</v>
+        <v>340.17</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>233.64</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>278.03999999999996</v>
+        <v>304.52000000000004</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>283.14</v>
+        <v>330.33</v>
       </c>
       <c r="O11" s="15">
         <v>3059.2000000000003</v>
@@ -5924,7 +5938,7 @@
         <v>42005</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:N4" si="0">EOMONTH(C3,0)+1</f>
+        <f t="shared" ref="D3:N3" si="0">EOMONTH(C3,0)+1</f>
         <v>42036</v>
       </c>
       <c r="E3" s="3">
@@ -6170,7 +6184,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>303.60000000000002</v>
+        <v>333.96</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -6178,15 +6192,15 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>219.45</v>
+        <v>207.9</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>333.27</v>
+        <v>349.14</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>355.12</v>
+        <v>293.36</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -6194,27 +6208,27 @@
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>219.03</v>
+        <v>229.46</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>270</v>
+        <v>283.5</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>333.27000000000004</v>
+        <v>275.31</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>198.55</v>
+        <v>240.35000000000002</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>234.60000000000002</v>
+        <v>224.4</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>328.02</v>
+        <v>342.93</v>
       </c>
       <c r="O11" s="15">
         <v>3166.4</v>
@@ -8438,7 +8452,7 @@
         <v>42370</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:N4" si="0">EOMONTH(C3,0)+1</f>
+        <f t="shared" ref="D3:N3" si="0">EOMONTH(C3,0)+1</f>
         <v>42401</v>
       </c>
       <c r="E3" s="3">
@@ -8684,15 +8698,15 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>267.95</v>
+        <v>209.7</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>302.82</v>
+        <v>259.56</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>248.01</v>
+        <v>259.82</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -8700,15 +8714,15 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>224.48999999999998</v>
+        <v>245.87</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>246.06</v>
+        <v>259.73</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>312.8</v>
+        <v>299.2</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -8716,7 +8730,7 @@
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>233.20000000000002</v>
+        <v>221.54</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -8724,11 +8738,11 @@
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>243.6</v>
+        <v>220.4</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>188.28</v>
+        <v>240.58</v>
       </c>
       <c r="O11" s="15">
         <v>2878.2</v>
@@ -10952,7 +10966,7 @@
         <v>42736</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:N4" si="0">EOMONTH(C3,0)+1</f>
+        <f t="shared" ref="D3:N3" si="0">EOMONTH(C3,0)+1</f>
         <v>42767</v>
       </c>
       <c r="E3" s="3">
@@ -11198,7 +11212,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>323.39999999999998</v>
+        <v>308.7</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -11206,43 +11220,43 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>222.42</v>
+        <v>232.53</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>190.79999999999998</v>
+        <v>233.2</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>199.44</v>
+        <v>210.52</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>201.60000000000002</v>
+        <v>231.84</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>338.36</v>
+        <v>353.74</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>295.68</v>
+        <v>267.52</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>282.24</v>
+        <v>255.36</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>237.59</v>
+        <v>196.27</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>219.26</v>
+        <v>207.72</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>264.29000000000002</v>
+        <v>278.2</v>
       </c>
       <c r="O11" s="15">
         <v>2946.2</v>
@@ -13466,7 +13480,7 @@
         <v>43101</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:N4" si="0">EOMONTH(C3,0)+1</f>
+        <f t="shared" ref="D3:N3" si="0">EOMONTH(C3,0)+1</f>
         <v>43132</v>
       </c>
       <c r="E3" s="3">
@@ -13712,11 +13726,11 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>334.65000000000003</v>
+        <v>291</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>236.34</v>
+        <v>275.73</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -13724,39 +13738,39 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>249.09</v>
+        <v>288.42</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>292.60000000000002</v>
+        <v>263.33999999999997</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>303.38</v>
+        <v>289.58999999999997</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>325.45</v>
+        <v>311.3</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>295.64</v>
+        <v>342.32</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>271.51</v>
+        <v>257.21999999999997</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>309.98</v>
+        <v>324.07</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>355.58000000000004</v>
+        <v>309.20000000000005</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>229.53</v>
+        <v>218.60000000000002</v>
       </c>
       <c r="O11" s="15">
         <v>3374.4</v>
@@ -16226,43 +16240,43 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>197.41</v>
+        <v>207.8</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>317.8</v>
+        <v>333.69</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>236.88</v>
+        <v>225.60000000000002</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>271.08</v>
+        <v>301.2</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>211.04999999999998</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>202.60000000000002</v>
+        <v>222.86</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>268.87</v>
+        <v>233.8</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>258.71999999999997</v>
+        <v>283.36</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>272.33999999999997</v>
+        <v>287.47000000000003</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -16270,7 +16284,7 @@
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>216.79</v>
+        <v>251.02</v>
       </c>
       <c r="O11" s="15">
         <v>3034.9999999999995</v>

--- a/03. Advanced Lookups.xlsx
+++ b/03. Advanced Lookups.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\us20726\Documents\excellent_at_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excellent_at_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35642B12-C6FD-411A-98AE-CE14374CD570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="2018" sheetId="7" r:id="rId7"/>
     <sheet name="2019" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="65">
   <si>
     <t>Gross Sales</t>
   </si>
@@ -218,11 +219,20 @@
   <si>
     <t>This allows for simplified analysis of data which can otherwise be problematic to gather and summarize.</t>
   </si>
+  <si>
+    <t>The indirect formula is really useful when you have similar data categorized across multiple tabs in a consistent format.</t>
+  </si>
+  <si>
+    <t>If you company has multiple markets, or multiple years' data and it spans multiple tabs, INDIRECT() is probably your friend.</t>
+  </si>
+  <si>
+    <t>You can parameterize your lookup like the example above and bam, you're done.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -689,10 +699,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -837,12 +849,27 @@
         <v>61</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -873,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -881,7 +908,7 @@
       <selection activeCell="A5" sqref="A5:A7"/>
       <selection pane="topRight" activeCell="A5" sqref="A5:A7"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:A7"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,11 +1180,11 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>228.60000000000002</v>
+        <v>262.89</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>223.8</v>
+        <v>246.18</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -1165,11 +1192,11 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>252.89999999999998</v>
+        <v>266.95</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>291.84000000000003</v>
+        <v>322.56</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -1177,23 +1204,23 @@
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>261.44</v>
+        <v>247.67999999999998</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>276.92</v>
+        <v>228.76</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>228.14000000000001</v>
+        <v>217.76999999999998</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>253.67999999999998</v>
+        <v>217.44</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -3385,7 +3412,7 @@
     </row>
     <row r="66" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="B16:B53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:B53">
     <sortCondition ref="B16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3393,12 +3420,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3670,43 +3695,43 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>327.98</v>
+        <v>299.45999999999998</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>272.40000000000003</v>
+        <v>258.78000000000003</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>281.39999999999998</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>184.68</v>
+        <v>235.98000000000002</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>189.35999999999999</v>
+        <v>241.96</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>271.86</v>
+        <v>248.22</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>228.4</v>
+        <v>205.56</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>229.32</v>
+        <v>218.4</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>340.17</v>
+        <v>266.21999999999997</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>259.60000000000002</v>
+        <v>285.56</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -3714,7 +3739,7 @@
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>330.33</v>
+        <v>314.60000000000002</v>
       </c>
       <c r="O11" s="15">
         <v>3059.2000000000003</v>
@@ -5907,12 +5932,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6188,7 +6211,7 @@
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>241.04000000000002</v>
+        <v>209.60000000000002</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -6196,35 +6219,35 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>349.14</v>
+        <v>317.40000000000003</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>293.36</v>
+        <v>324.24</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>316.40000000000003</v>
+        <v>284.76</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>229.46</v>
+        <v>219.03</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>283.5</v>
+        <v>310.5</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>275.31</v>
+        <v>318.78000000000003</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>240.35000000000002</v>
+        <v>219.45</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>224.4</v>
+        <v>183.6</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -8421,12 +8444,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8698,7 +8719,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>209.7</v>
+        <v>267.95</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -8706,15 +8727,15 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>259.82</v>
+        <v>236.20000000000002</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>239.21</v>
+        <v>289.57</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>245.87</v>
+        <v>235.18</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -8722,27 +8743,27 @@
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>299.2</v>
+        <v>285.59999999999997</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>211.60000000000002</v>
+        <v>201.02</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>221.54</v>
+        <v>268.18</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>201.23999999999998</v>
+        <v>234.78</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>220.4</v>
+        <v>243.6</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>240.58</v>
+        <v>209.20000000000002</v>
       </c>
       <c r="O11" s="15">
         <v>2878.2</v>
@@ -10935,12 +10956,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11212,43 +11231,43 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>308.7</v>
+        <v>294</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>229.14000000000001</v>
+        <v>277.38</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>232.53</v>
+        <v>202.20000000000002</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>233.2</v>
+        <v>190.79999999999998</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>210.52</v>
+        <v>221.60000000000002</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>231.84</v>
+        <v>211.67999999999998</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>353.74</v>
+        <v>338.36</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>267.52</v>
+        <v>309.76</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>255.36</v>
+        <v>295.68</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>196.27</v>
+        <v>185.94</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -11256,7 +11275,7 @@
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>278.2</v>
+        <v>292.11</v>
       </c>
       <c r="O11" s="15">
         <v>2946.2</v>
@@ -13449,12 +13468,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13726,51 +13743,51 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>291</v>
+        <v>305.55</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>275.73</v>
+        <v>236.34</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>285.57</v>
+        <v>345.69</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>288.42</v>
+        <v>275.31</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>263.33999999999997</v>
+        <v>336.49</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>289.58999999999997</v>
+        <v>317.17</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>311.3</v>
+        <v>283</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>342.32</v>
+        <v>326.76</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>257.21999999999997</v>
+        <v>300.08999999999997</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>324.07</v>
+        <v>253.62</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>309.20000000000005</v>
+        <v>278.27999999999997</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>218.60000000000002</v>
+        <v>196.73999999999998</v>
       </c>
       <c r="O11" s="15">
         <v>3374.4</v>
@@ -15963,12 +15980,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16240,43 +16255,43 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>207.8</v>
+        <v>228.58</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>333.69</v>
+        <v>349.58</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>225.60000000000002</v>
+        <v>236.88</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>301.2</v>
+        <v>271.08</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>211.04999999999998</v>
+        <v>190.95</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>222.86</v>
+        <v>182.34</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>233.8</v>
+        <v>210.42</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>283.36</v>
+        <v>246.4</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>287.47000000000003</v>
+        <v>302.60000000000002</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -16284,7 +16299,7 @@
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>251.02</v>
+        <v>216.79</v>
       </c>
       <c r="O11" s="15">
         <v>3034.9999999999995</v>

--- a/03. Advanced Lookups.xlsx
+++ b/03. Advanced Lookups.xlsx
@@ -1,38 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excellent_at_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.henson\Scripts\excellent_at_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35642B12-C6FD-411A-98AE-CE14374CD570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E66AE3-F2F7-4BFF-85DD-735D0E7685D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="2013" sheetId="2" r:id="rId2"/>
-    <sheet name="2014" sheetId="3" r:id="rId3"/>
-    <sheet name="2015" sheetId="4" r:id="rId4"/>
-    <sheet name="2016" sheetId="5" r:id="rId5"/>
-    <sheet name="2017" sheetId="6" r:id="rId6"/>
-    <sheet name="2018" sheetId="7" r:id="rId7"/>
-    <sheet name="2019" sheetId="8" r:id="rId8"/>
+    <sheet name="Conditional Data Validation" sheetId="10" r:id="rId1"/>
+    <sheet name="Yearly Summary" sheetId="1" r:id="rId2"/>
+    <sheet name="2013" sheetId="2" r:id="rId3"/>
+    <sheet name="2014" sheetId="3" r:id="rId4"/>
+    <sheet name="2015" sheetId="4" r:id="rId5"/>
+    <sheet name="2016" sheetId="5" r:id="rId6"/>
+    <sheet name="2017" sheetId="6" r:id="rId7"/>
+    <sheet name="2018" sheetId="7" r:id="rId8"/>
+    <sheet name="2019" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="86">
   <si>
     <t>Gross Sales</t>
   </si>
@@ -228,6 +238,115 @@
   <si>
     <t>You can parameterize your lookup like the example above and bam, you're done.</t>
   </si>
+  <si>
+    <t>drive data-validation drop-downs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subcategory can be ordered as you please to </t>
+  </si>
+  <si>
+    <t>sorting in data-validation drop-down.</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Travel &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Revenue Stream 01</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>categorizationDim</t>
+  </si>
+  <si>
+    <t>categoriesDim</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">categorizationDim table </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be sorted by Category.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sorting in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>categoriesDim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table drives</t>
+    </r>
+  </si>
+  <si>
+    <t>Data entry table:</t>
+  </si>
 </sst>
 </file>
 
@@ -372,7 +491,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -416,6 +535,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -435,6 +556,827 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65A2E13-659E-48EE-A5BC-0D6AC3D9E4DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="2476500"/>
+          <a:ext cx="8553450" cy="3352801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Subcategory</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> Column's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t> Data Validation Formula:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>=OFFSET(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    INDIRECT("categorizationDim[[#Headers],[Subcategory]]"), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;-- Use indirect because table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> reference aren't allowed in Data Validation formulas.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    MATCH(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        I4, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Unanchored to refer to each table row</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        INDIRECT("categorizationDim[Category]"),</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    ),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    0,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    COUNTIF(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        INDIRECT("categorizationDim[Category]")</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        I4 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Unanchored to refer to each table row</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Pseudo-code:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Look</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> in the Subcategory column, find how many rows down the selected category is in the category list and return however many subcategory entries there are at that point.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD8C4E5-F0C1-4FAE-8AB7-E6BCC03BA1AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="190499"/>
+          <a:ext cx="1390650" cy="1333501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1466849</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A0C4AF-59FE-4664-9432-F091DE814A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705724" y="190501"/>
+          <a:ext cx="1457325" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDDCFE6-A903-41BA-BFD4-079DFAD5830E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8191501" y="1143000"/>
+          <a:ext cx="242886" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D4C21A-077B-4039-BE8D-EFE2856858AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="190501"/>
+          <a:ext cx="714376" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5255B5-EBE9-476B-BBC8-E8F5E1CFA437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="2476500"/>
+          <a:ext cx="5172075" cy="3352801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Category </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>Column's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t> Data Validation Formula:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>INDIRECT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>("categoriesDim[Categories]") </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use indirect because table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> reference aren't allowed in Data Validation formulas.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1195388</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA49249-D04C-4E8C-8DA9-013B52C44769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5110163" y="1143001"/>
+          <a:ext cx="2209800" cy="1333499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1195388</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0495A126-B953-4C94-9113-2823807DDAE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="1524000"/>
+          <a:ext cx="1890713" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD0B9DD7-E60B-4F0E-9356-DB911E7A5FB6}" name="categoriesDim" displayName="categoriesDim" ref="B2:B4" totalsRowShown="0">
+  <autoFilter ref="B2:B4" xr:uid="{85967C9E-AB2E-4B9C-9504-7149B5E90CB7}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{2137F4BE-EA3D-4710-B961-F4B136CCA9B2}" name="Categories"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DFD56B2F-7764-4031-BF69-BC547F667206}" name="categorizationDim" displayName="categorizationDim" ref="D2:E8" totalsRowShown="0">
+  <autoFilter ref="D2:E8" xr:uid="{AFE46195-B730-4F6E-8CEC-0713E00FA191}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{72702E12-DE25-48FD-9475-CCD63437C2F7}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{0F0C5395-2049-4415-B910-8FBE3598B298}" name="Subcategory"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4A5A563-033E-4541-B3B3-7A93B60DC08D}" name="dataInput" displayName="dataInput" ref="G2:K6" totalsRowShown="0">
+  <autoFilter ref="G2:K6" xr:uid="{E9D634C0-8E27-45D9-B7D7-45A73E623A90}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FC0517B7-90A5-4966-BD8F-F99048EA3F76}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{29A541D1-9130-458C-AA0A-E516013CDF93}" name="Account"/>
+    <tableColumn id="3" xr3:uid="{2AD50272-B53B-4636-BA2A-37C88736AF86}" name="Category"/>
+    <tableColumn id="4" xr3:uid="{F0D5374B-EA26-4BBB-A06A-667F052F1919}" name="Subcategory"/>
+    <tableColumn id="5" xr3:uid="{646CA49F-4517-4AC0-A89B-96FBD8DB3098}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,10 +1641,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A0FE5C-BF54-4E94-A071-31C4D023254F}">
+  <dimension ref="B1:K12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="27">
+        <v>44197</v>
+      </c>
+      <c r="H3">
+        <v>4570</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="27">
+        <v>44199</v>
+      </c>
+      <c r="H4">
+        <v>6493</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="27">
+        <v>44199</v>
+      </c>
+      <c r="H5">
+        <v>4602</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="27">
+        <v>44201</v>
+      </c>
+      <c r="H6">
+        <v>5395</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J6" xr:uid="{921271D0-C98B-4E8E-9402-B88DB3497D9E}">
+      <formula1>OFFSET(INDIRECT("categorizationDim[[#Headers],[Subcategory]]"),MATCH(I3,INDIRECT("categorizationDim[Category]"),0),0,COUNTIF(INDIRECT("categorizationDim[Category]"),I3))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D8 I3:I6" xr:uid="{83CAA8C7-9081-4E8C-8270-96AA21AFC074}">
+      <formula1>INDIRECT("categoriesDim[Categories]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -880,15 +2023,15 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Summary!B2:H2</xm:f>
+              <xm:f>'Yearly Summary'!B2:H2</xm:f>
               <xm:sqref>I2</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Summary!B3:H3</xm:f>
+              <xm:f>'Yearly Summary'!B3:H3</xm:f>
               <xm:sqref>I3</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Summary!B4:H4</xm:f>
+              <xm:f>'Yearly Summary'!B4:H4</xm:f>
               <xm:sqref>I4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
@@ -899,7 +2042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
@@ -1184,19 +2327,19 @@
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>246.18</v>
+        <v>223.8</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>289.74</v>
+        <v>302.91000000000003</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>266.95</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>322.56</v>
+        <v>353.28000000000003</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -1204,7 +2347,7 @@
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>247.67999999999998</v>
+        <v>275.2</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -1212,7 +2355,7 @@
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>217.76999999999998</v>
+        <v>197.03</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -1220,11 +2363,11 @@
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>217.44</v>
+        <v>241.60000000000002</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>301.56</v>
+        <v>330.28000000000003</v>
       </c>
       <c r="O11" s="15">
         <v>3175</v>
@@ -3419,7 +4562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
@@ -3695,15 +4838,15 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>299.45999999999998</v>
+        <v>285.2</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>258.78000000000003</v>
+        <v>245.16</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>268</v>
+        <v>308.2</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -3711,27 +4854,27 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>241.96</v>
+        <v>189.35999999999999</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>248.22</v>
+        <v>212.76</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>205.56</v>
+        <v>216.98</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>218.4</v>
+        <v>251.16000000000003</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>266.21999999999997</v>
+        <v>281.01</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>285.56</v>
+        <v>246.62</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -3739,7 +4882,7 @@
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>314.60000000000002</v>
+        <v>346.06</v>
       </c>
       <c r="O11" s="15">
         <v>3059.2000000000003</v>
@@ -5931,7 +7074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
@@ -6207,15 +7350,15 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>333.96</v>
+        <v>303.60000000000002</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>209.60000000000002</v>
+        <v>241.04000000000002</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>207.9</v>
+        <v>265.65000000000003</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -6223,15 +7366,15 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>324.24</v>
+        <v>277.92</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>284.76</v>
+        <v>363.86</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>219.03</v>
+        <v>187.73999999999998</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -6239,19 +7382,19 @@
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>318.78000000000003</v>
+        <v>275.31</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>219.45</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>183.6</v>
+        <v>214.2</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>342.93</v>
+        <v>268.38</v>
       </c>
       <c r="O11" s="15">
         <v>3166.4</v>
@@ -8443,7 +9586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
@@ -8719,51 +9862,51 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>267.95</v>
+        <v>209.7</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>259.56</v>
+        <v>302.82</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>236.20000000000002</v>
+        <v>271.63</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>289.57</v>
+        <v>239.21</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>235.18</v>
+        <v>192.42</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>259.73</v>
+        <v>300.74</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>285.59999999999997</v>
+        <v>272</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>201.02</v>
+        <v>232.76</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>268.18</v>
+        <v>221.54</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>234.78</v>
+        <v>257.14</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>243.6</v>
+        <v>255.2</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>209.20000000000002</v>
+        <v>188.28</v>
       </c>
       <c r="O11" s="15">
         <v>2878.2</v>
@@ -10955,7 +12098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
@@ -11231,7 +12374,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>294</v>
+        <v>338.1</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -11239,43 +12382,43 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>202.20000000000002</v>
+        <v>212.31</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>190.79999999999998</v>
+        <v>243.8</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>221.60000000000002</v>
+        <v>232.67999999999998</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>211.67999999999998</v>
+        <v>191.52</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>338.36</v>
+        <v>307.60000000000002</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>309.76</v>
+        <v>267.52</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>295.68</v>
+        <v>255.36</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>185.94</v>
+        <v>237.59</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>207.72</v>
+        <v>242.34</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>292.11</v>
+        <v>278.2</v>
       </c>
       <c r="O11" s="15">
         <v>2946.2</v>
@@ -13467,7 +14610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
@@ -13747,19 +14890,19 @@
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>236.34</v>
+        <v>275.73</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>345.69</v>
+        <v>315.63</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>275.31</v>
+        <v>288.42</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>336.49</v>
+        <v>277.97000000000003</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -13767,7 +14910,7 @@
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>283</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -13775,19 +14918,19 @@
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>300.08999999999997</v>
+        <v>271.51</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>253.62</v>
+        <v>281.8</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>278.27999999999997</v>
+        <v>309.20000000000005</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>196.73999999999998</v>
+        <v>218.60000000000002</v>
       </c>
       <c r="O11" s="15">
         <v>3374.4</v>
@@ -15979,7 +17122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
@@ -16255,7 +17398,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:N11" ca="1" si="1">RANDBETWEEN(18,23)/100*C5</f>
-        <v>228.58</v>
+        <v>207.8</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -16263,19 +17406,19 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>236.88</v>
+        <v>203.04</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>271.08</v>
+        <v>316.26</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>190.95</v>
+        <v>221.1</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>182.34</v>
+        <v>212.73</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -16291,15 +17434,15 @@
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>302.60000000000002</v>
+        <v>347.99</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>241.2</v>
+        <v>308.2</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>216.79</v>
+        <v>251.02</v>
       </c>
       <c r="O11" s="15">
         <v>3034.9999999999995</v>
